--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>383269.5528422367</v>
+        <v>381381.9713258342</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>292.9381624803057</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,10 +713,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>309.5118643961252</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554011</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>43.99240337009289</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>118.1448021904736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>176.3932096023457</v>
       </c>
       <c r="H5" t="n">
-        <v>59.96922873496565</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>131.8179123113441</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>88.88965426564965</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>343.7005624481677</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>384.5763573779266</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>134.0196014506295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>67.24036028042102</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0.2714703996720402</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>92.49323480455985</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,10 +1588,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274074</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>136.9810018884461</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,13 +1822,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>175.9880246214061</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -2002,25 +2002,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>12.6876264333672</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>12.38745106425213</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>125.1646047122545</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065125</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>67.33408187829251</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>5.562624396424664</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,10 +2570,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>73.00837259454069</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,10 +2764,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>21.85553884047506</v>
+        <v>93.41221638965534</v>
       </c>
       <c r="E31" t="n">
-        <v>91.230706018012</v>
+        <v>91.23070601801216</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437407</v>
+        <v>0.1313183205126961</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897896</v>
+        <v>93.71057173897911</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357148</v>
+        <v>55.21598883571498</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752356</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373688</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463127</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415208</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287495</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689356</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463127</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415208</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206818</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1873.842488573869</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="C2" t="n">
-        <v>1504.879971633457</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D2" t="n">
-        <v>1146.614273026707</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E2" t="n">
-        <v>760.8260204284627</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>349.8401156388551</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834949</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834949</v>
+        <v>1735.936904077774</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834949</v>
+        <v>1735.936904077774</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.842488573869</v>
+        <v>1362.471145816694</v>
       </c>
       <c r="Y2" t="n">
-        <v>1873.842488573869</v>
+        <v>972.3318138408822</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>358.5813018857447</v>
+        <v>98.37975290126636</v>
       </c>
       <c r="C4" t="n">
-        <v>358.5813018857447</v>
+        <v>98.37975290126636</v>
       </c>
       <c r="D4" t="n">
-        <v>358.5813018857447</v>
+        <v>98.37975290126636</v>
       </c>
       <c r="E4" t="n">
-        <v>358.5813018857447</v>
+        <v>98.37975290126636</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>98.37975290126636</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>98.37975290126636</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>98.37975290126636</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.3738810292748</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.3738810292748</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>579.3738810292748</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>579.3738810292748</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>579.3738810292748</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>579.3738810292748</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X4" t="n">
-        <v>579.3738810292748</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y4" t="n">
-        <v>358.5813018857447</v>
+        <v>280.0282177315061</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1670.695888779115</v>
+        <v>1878.515311311824</v>
       </c>
       <c r="C5" t="n">
-        <v>1301.733371838703</v>
+        <v>1509.552794371412</v>
       </c>
       <c r="D5" t="n">
-        <v>943.4676732319524</v>
+        <v>1509.552794371412</v>
       </c>
       <c r="E5" t="n">
-        <v>943.4676732319524</v>
+        <v>1123.764541773168</v>
       </c>
       <c r="F5" t="n">
-        <v>532.4817684423449</v>
+        <v>712.7786369835605</v>
       </c>
       <c r="G5" t="n">
-        <v>114.5179603405318</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4598,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.295728843236</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>2057.295728843236</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y5" t="n">
-        <v>2057.295728843236</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,31 +4644,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C7" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="D7" t="n">
-        <v>336.2769833124028</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E7" t="n">
-        <v>336.2769833124028</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F7" t="n">
-        <v>189.3870358144924</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G7" t="n">
-        <v>189.3870358144924</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>189.3870358144924</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X7" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y7" t="n">
-        <v>336.2769833124028</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1233.603060210037</v>
+        <v>1549.547090562791</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>1180.58457362238</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1180.58457362238</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1180.58457362238</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>769.5986688327723</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="Y8" t="n">
-        <v>1580.775345511217</v>
+        <v>1936.146930626913</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>370.7922583306645</v>
       </c>
       <c r="C10" t="n">
-        <v>529.7758821321493</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>529.7758821321493</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>381.8627885497561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>234.9728410518458</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>370.7922583306645</v>
       </c>
     </row>
     <row r="11">
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5127,7 +5127,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>618.0053231677515</v>
+        <v>506.0324822735056</v>
       </c>
       <c r="C13" t="n">
-        <v>449.0691402398446</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D13" t="n">
-        <v>449.0691402398446</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E13" t="n">
         <v>355.6416303362487</v>
@@ -5200,49 +5200,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.446367141521</v>
+        <v>1244.231782352014</v>
       </c>
       <c r="W13" t="n">
-        <v>1020.446367141521</v>
+        <v>954.8146123150531</v>
       </c>
       <c r="X13" t="n">
-        <v>1020.446367141521</v>
+        <v>726.8250614170357</v>
       </c>
       <c r="Y13" t="n">
-        <v>799.6537879979912</v>
+        <v>506.0324822735056</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,34 +5261,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5321,7 +5321,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>870.7229774352688</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C16" t="n">
-        <v>701.7867945073619</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D16" t="n">
-        <v>551.6701550950262</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>403.7570615126331</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>403.7570615126331</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5817398324537</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>1098.712528333286</v>
+        <v>1032.021950335697</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.712528333286</v>
+        <v>742.6047802987359</v>
       </c>
       <c r="X16" t="n">
-        <v>870.7229774352688</v>
+        <v>742.6047802987359</v>
       </c>
       <c r="Y16" t="n">
-        <v>870.7229774352688</v>
+        <v>742.6047802987359</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5516,10 +5516,10 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.0328757364142</v>
+        <v>727.1135926675562</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0328757364142</v>
+        <v>558.1774097396493</v>
       </c>
       <c r="D19" t="n">
-        <v>110.0328757364142</v>
+        <v>408.0607703273135</v>
       </c>
       <c r="E19" t="n">
-        <v>110.0328757364142</v>
+        <v>260.1476767449204</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>260.1476767449204</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>260.1476767449204</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>109.7296682928637</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227918</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>620.2426249169049</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W19" t="n">
-        <v>330.8254548799443</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="X19" t="n">
-        <v>330.8254548799443</v>
+        <v>727.1135926675562</v>
       </c>
       <c r="Y19" t="n">
-        <v>110.0328757364142</v>
+        <v>727.1135926675562</v>
       </c>
     </row>
     <row r="20">
@@ -5729,22 +5729,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805457</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,43 +5753,43 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5817,13 +5817,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5832,19 +5832,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>498.9056400965599</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>668.5656656016672</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531122</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="V22" t="n">
-        <v>835.4163915387937</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018332</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>850.2141304319069</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5978,7 +5978,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,28 +5987,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>465.7659634441657</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>465.7659634441657</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>315.64932403183</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387593</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011508</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>755.1831334811262</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441657</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>465.7659634441657</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>465.7659634441657</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405891</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405891</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405892</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
         <v>507.4972331799365</v>
@@ -6412,22 +6412,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>755.1831334811261</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>465.7659634441655</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>465.7659634441655</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>465.7659634441655</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,34 +6479,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030896</v>
+        <v>659.8783819731802</v>
       </c>
       <c r="C31" t="n">
-        <v>565.4200295030896</v>
+        <v>546.7030643266443</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440235</v>
+        <v>452.3472901956794</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430012</v>
+        <v>360.195061894657</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264618</v>
+        <v>360.0624171264623</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276532</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962057</v>
+        <v>997.6688721962049</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1791.966918252997</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167072</v>
+        <v>1623.942368323873</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1390.574594818802</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1191.650971894286</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818953</v>
+        <v>957.9946671386958</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652488</v>
+        <v>785.7659815220492</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030896</v>
+        <v>785.7659815220492</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,67 +6683,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6950,13 +6950,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108341</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229683</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506737</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083217</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504524</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,52 +7093,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045216</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010327</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
@@ -7169,22 +7169,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7196,28 +7196,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7242,37 +7242,37 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
@@ -7330,40 +7330,40 @@
         <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859417</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7558,7 +7558,7 @@
         <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7634,46 +7634,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D46" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E46" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7819,22 +7819,22 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
         <v>1489.892037025263</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862498</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045215</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010321</v>
+        <v>772.288612901032</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951786</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>213.260391180663</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>87.16935584025435</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>91.23759968302147</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298105</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>124.3400780863231</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>166.9753506989558</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94072784200932</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23476,10 +23476,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>11.93282647908999</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>76.14961870242186</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,25 +23890,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>132.733421589564</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>98.03179440001986</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>42.08221638637336</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24175,19 +24175,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518768</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>79.09988076827661</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>106.8236075873966</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>71.55667754918014</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.08647307386154</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523579</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -25126,10 +25126,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>-8.304912441091779e-13</v>
       </c>
       <c r="U34" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457131</v>
       </c>
       <c r="C2" t="n">
-        <v>328416.7079457135</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457133</v>
+        <v>328416.7079457134</v>
       </c>
       <c r="E2" t="n">
+        <v>312823.2477901669</v>
+      </c>
+      <c r="F2" t="n">
+        <v>312823.2477901669</v>
+      </c>
+      <c r="G2" t="n">
         <v>312823.247790167</v>
       </c>
-      <c r="F2" t="n">
-        <v>312823.247790167</v>
-      </c>
-      <c r="G2" t="n">
-        <v>312823.2477901669</v>
-      </c>
       <c r="H2" t="n">
-        <v>312823.247790167</v>
+        <v>312823.2477901668</v>
       </c>
       <c r="I2" t="n">
         <v>312823.2477901669</v>
       </c>
       <c r="J2" t="n">
-        <v>312823.247790167</v>
+        <v>312823.2477901669</v>
       </c>
       <c r="K2" t="n">
-        <v>325457.7098762159</v>
+        <v>325457.7098762157</v>
       </c>
       <c r="L2" t="n">
+        <v>328416.7079457134</v>
+      </c>
+      <c r="M2" t="n">
+        <v>328416.7079457135</v>
+      </c>
+      <c r="N2" t="n">
         <v>328416.7079457132</v>
-      </c>
-      <c r="M2" t="n">
-        <v>328416.7079457136</v>
-      </c>
-      <c r="N2" t="n">
-        <v>328416.7079457134</v>
       </c>
       <c r="O2" t="n">
         <v>328416.7079457135</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284556</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086676</v>
+        <v>10342.90680086696</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284554</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007464</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007518</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007498</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007478</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007503</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007416</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020405</v>
+        <v>26081.35417020401</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732793</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="M4" t="n">
+        <v>30335.51889732798</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30335.51889732801</v>
+      </c>
+      <c r="O4" t="n">
+        <v>30335.51889732796</v>
+      </c>
+      <c r="P4" t="n">
         <v>30335.51889732795</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732798</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732797</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,31 +26485,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-492327.2980481616</v>
+        <v>-492327.2980481617</v>
       </c>
       <c r="C6" t="n">
-        <v>97640.5811663832</v>
+        <v>97640.58116638308</v>
       </c>
       <c r="D6" t="n">
-        <v>97640.58116638302</v>
+        <v>97640.58116638305</v>
       </c>
       <c r="E6" t="n">
-        <v>-312240.8462914533</v>
+        <v>-312338.3054174255</v>
       </c>
       <c r="F6" t="n">
-        <v>212919.1901854429</v>
+        <v>212821.7310594705</v>
       </c>
       <c r="G6" t="n">
-        <v>212919.1901854428</v>
+        <v>212821.7310594708</v>
       </c>
       <c r="H6" t="n">
-        <v>212919.1901854427</v>
+        <v>212821.7310594706</v>
       </c>
       <c r="I6" t="n">
-        <v>212919.1901854428</v>
+        <v>212821.7310594705</v>
       </c>
       <c r="J6" t="n">
-        <v>36495.97099284982</v>
+        <v>36398.51186687766</v>
       </c>
       <c r="K6" t="n">
-        <v>158585.5418729433</v>
+        <v>158567.0481350089</v>
       </c>
       <c r="L6" t="n">
         <v>190023.1764274931</v>
       </c>
       <c r="M6" t="n">
-        <v>65565.06799452317</v>
+        <v>65565.06799452302</v>
       </c>
       <c r="N6" t="n">
-        <v>200366.08322836</v>
+        <v>200366.0832283599</v>
       </c>
       <c r="O6" t="n">
-        <v>200366.0832283604</v>
+        <v>200366.0832283602</v>
       </c>
       <c r="P6" t="n">
-        <v>156203.4779255143</v>
+        <v>156203.4779255146</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
@@ -26753,25 +26753,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26811,7 +26811,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108345</v>
+        <v>12.9286335010837</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855691</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545562</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>120.8460075404893</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>18.24039407400966</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>90.97321842224534</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>28.52038978968422</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>237.3909604184493</v>
       </c>
       <c r="H5" t="n">
-        <v>263.9535440293915</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>16.79756070686827</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>46.07596752668857</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.03327921531292</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>29.20781264286842</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,25 +27901,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>33.29020080842142</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>151.3442930716738</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-7.525932050258261e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855717</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,16 +35495,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187329</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -35978,7 +35978,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>420.3538061121876</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>237.7447944281936</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>401.6619767334877</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36759,19 +36759,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>621.6037559756885</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.71102679412253</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.42895660043176</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520624</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352443</v>
@@ -37242,10 +37242,10 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,16 +37461,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520624</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
@@ -37479,10 +37479,10 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37871,16 +37871,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,25 +38172,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414413</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
